--- a/upload/mp-2025.xlsx
+++ b/upload/mp-2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="19">
   <si>
     <t>unidade</t>
   </si>
@@ -36,13 +36,7 @@
     <t>CHPB</t>
   </si>
   <si>
-    <t>CSPD</t>
-  </si>
-  <si>
     <t>CSSFA</t>
-  </si>
-  <si>
-    <t>CSSFE</t>
   </si>
   <si>
     <t>CSSI</t>
@@ -123,11 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:XFD173"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,7 +433,7 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>50.928571428571431</v>
       </c>
     </row>
@@ -454,7 +447,7 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>50.441860465116278</v>
       </c>
     </row>
@@ -468,7 +461,7 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>49.489795918367349</v>
       </c>
     </row>
@@ -482,7 +475,7 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>37.150943396226417</v>
       </c>
     </row>
@@ -496,7 +489,7 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>41.978723404255319</v>
       </c>
     </row>
@@ -510,7 +503,7 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>39.145454545454548</v>
       </c>
     </row>
@@ -524,7 +517,7 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>47.071428571428569</v>
       </c>
     </row>
@@ -538,7 +531,7 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>45.478260869565219</v>
       </c>
     </row>
@@ -552,7 +545,7 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>60.9</v>
       </c>
     </row>
@@ -566,22 +559,22 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>48.232558139534881</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>28.444444444444443</v>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>60.121212121212125</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -592,10 +585,10 @@
         <v>2025</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>24.117647058823529</v>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>55.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -606,10 +599,10 @@
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>27.333333333333332</v>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>56.352941176470587</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -620,10 +613,10 @@
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3">
-        <v>18.324324324324323</v>
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>92.15384615384616</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -634,10 +627,10 @@
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>62.611111111111114</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -648,10 +641,10 @@
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>26.2</v>
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>69.368421052631575</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -662,10 +655,10 @@
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3">
-        <v>32.96153846153846</v>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>83.058823529411768</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -676,10 +669,10 @@
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3">
-        <v>32.629629629629626</v>
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -690,10 +683,10 @@
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3">
-        <v>31.391304347826086</v>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>53.46153846153846</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -704,38 +697,38 @@
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>39.136363636363633</v>
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>82.933333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>53.80952380952381</v>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>56.352941176470587</v>
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>57.210526315789473</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -746,10 +739,10 @@
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>92.15384615384616</v>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>19.485714285714284</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -760,10 +753,10 @@
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>62.611111111111114</v>
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>19.382352941176471</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -774,10 +767,10 @@
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>69.368421052631575</v>
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>15.804878048780488</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -788,10 +781,10 @@
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>83.058823529411768</v>
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>18.25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -802,10 +795,10 @@
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3">
-        <v>75.099999999999994</v>
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>20.606557377049182</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -816,10 +809,10 @@
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3">
-        <v>53.46153846153846</v>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>21.044117647058822</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -830,10 +823,10 @@
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3">
-        <v>82.933333333333337</v>
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>21.338235294117649</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -844,52 +837,52 @@
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>18.942857142857143</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>40.222222222222221</v>
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>20.880597014925375</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2">
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>6.4545454545454541</v>
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>21.112676056338028</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>22.158730158730158</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -900,10 +893,10 @@
         <v>2025</v>
       </c>
       <c r="C35" s="2">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>6.9779874213836477</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -914,10 +907,10 @@
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>7.6181818181818182</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -928,10 +921,10 @@
         <v>2025</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>7.4643962848297214</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -942,10 +935,10 @@
         <v>2025</v>
       </c>
       <c r="C38" s="2">
-        <v>7</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>7.2340425531914896</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -956,10 +949,10 @@
         <v>2025</v>
       </c>
       <c r="C39" s="2">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>7.2652439024390247</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -970,10 +963,10 @@
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>7.6568627450980395</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -984,66 +977,66 @@
         <v>2025</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7.5122699386503067</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C42" s="2">
         <v>8</v>
       </c>
-      <c r="B42" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>19.485714285714284</v>
+      <c r="D42">
+        <v>7.762057877813505</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2">
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3">
-        <v>19.382352941176471</v>
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>7.7129032258064516</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>3</v>
-      </c>
-      <c r="D44" s="3">
-        <v>15.804878048780488</v>
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>7.2625368731563418</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2">
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3">
-        <v>18.25</v>
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>7.6907894736842106</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1054,10 +1047,10 @@
         <v>2025</v>
       </c>
       <c r="C46" s="2">
-        <v>5</v>
-      </c>
-      <c r="D46" s="3">
-        <v>20.606557377049182</v>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>252.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1068,10 +1061,10 @@
         <v>2025</v>
       </c>
       <c r="C47" s="2">
-        <v>6</v>
-      </c>
-      <c r="D47" s="3">
-        <v>21.35820895522388</v>
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>95.2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1082,10 +1075,10 @@
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
-      </c>
-      <c r="D48" s="3">
-        <v>21.656716417910449</v>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>150.42857142857142</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1096,10 +1089,10 @@
         <v>2025</v>
       </c>
       <c r="C49" s="2">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3">
-        <v>18.942857142857143</v>
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>106.7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1110,10 +1103,10 @@
         <v>2025</v>
       </c>
       <c r="C50" s="2">
-        <v>9</v>
-      </c>
-      <c r="D50" s="3">
-        <v>20.880597014925375</v>
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>206.16666666666666</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1124,80 +1117,80 @@
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3">
-        <v>21.112676056338028</v>
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>180.85714285714286</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="2">
         <v>2025</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
-        <v>6.7578616352201255</v>
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>113.66666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" s="2">
         <v>2025</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3">
-        <v>7.6181818181818182</v>
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>159.22222222222223</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C54" s="2">
         <v>9</v>
       </c>
-      <c r="B54" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C54" s="2">
-        <v>3</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7.4643962848297214</v>
+      <c r="D54">
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2">
         <v>2025</v>
       </c>
       <c r="C55" s="2">
-        <v>4</v>
-      </c>
-      <c r="D55" s="3">
-        <v>7.2340425531914896</v>
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>109.25</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
         <v>2025</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3">
-        <v>7.2652439024390247</v>
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>48.037037037037038</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1208,10 +1201,10 @@
         <v>2025</v>
       </c>
       <c r="C57" s="2">
-        <v>6</v>
-      </c>
-      <c r="D57" s="3">
-        <v>7.6568627450980395</v>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>14.846153846153847</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1222,10 +1215,10 @@
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3">
-        <v>7.5122699386503067</v>
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>13.902255639097744</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1236,10 +1229,10 @@
         <v>2025</v>
       </c>
       <c r="C59" s="2">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3">
-        <v>7.762057877813505</v>
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>14.284810126582279</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1250,10 +1243,10 @@
         <v>2025</v>
       </c>
       <c r="C60" s="2">
-        <v>9</v>
-      </c>
-      <c r="D60" s="3">
-        <v>7.7129032258064516</v>
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>12.819767441860465</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1264,94 +1257,94 @@
         <v>2025</v>
       </c>
       <c r="C61" s="2">
-        <v>10</v>
-      </c>
-      <c r="D61" s="3">
-        <v>7.2625368731563418</v>
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>13.00561797752809</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2">
         <v>2025</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3">
-        <v>244.5</v>
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>13.641176470588235</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2">
         <v>2025</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
-      </c>
-      <c r="D63" s="3">
-        <v>95.2</v>
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>12.864130434782609</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>2025</v>
       </c>
       <c r="C64" s="2">
-        <v>3</v>
-      </c>
-      <c r="D64" s="3">
-        <v>150.42857142857142</v>
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>14.787878787878787</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="2">
         <v>2025</v>
       </c>
       <c r="C65" s="2">
-        <v>4</v>
-      </c>
-      <c r="D65" s="3">
-        <v>106.7</v>
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>12.206521739130435</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C66" s="2">
         <v>10</v>
       </c>
-      <c r="B66" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C66" s="2">
-        <v>5</v>
-      </c>
-      <c r="D66" s="3">
-        <v>206.16666666666666</v>
+      <c r="D66">
+        <v>11.25257731958763</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" s="2">
         <v>2025</v>
       </c>
       <c r="C67" s="2">
-        <v>6</v>
-      </c>
-      <c r="D67" s="3">
-        <v>180.85714285714286</v>
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>13.777777777777779</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1362,10 +1355,10 @@
         <v>2025</v>
       </c>
       <c r="C68" s="2">
-        <v>7</v>
-      </c>
-      <c r="D68" s="3">
-        <v>113.66666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>7.4709302325581399</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1376,10 +1369,10 @@
         <v>2025</v>
       </c>
       <c r="C69" s="2">
-        <v>8</v>
-      </c>
-      <c r="D69" s="3">
-        <v>159.22222222222223</v>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>6.4595375722543356</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1390,10 +1383,10 @@
         <v>2025</v>
       </c>
       <c r="C70" s="2">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>6.6488888888888891</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1404,108 +1397,108 @@
         <v>2025</v>
       </c>
       <c r="C71" s="2">
-        <v>10</v>
-      </c>
-      <c r="D71" s="3">
-        <v>109.25</v>
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>6.4341372912801482</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" s="2">
         <v>2025</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3">
-        <v>14.44055944055944</v>
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>6.72887323943662</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2">
         <v>2025</v>
       </c>
       <c r="C73" s="2">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>13.902255639097744</v>
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>6.286282306163022</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2">
         <v>2025</v>
       </c>
       <c r="C74" s="2">
-        <v>3</v>
-      </c>
-      <c r="D74" s="3">
-        <v>14.284810126582279</v>
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>6.8276762402088771</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2">
         <v>2025</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12.819767441860465</v>
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>7.9373040752351098</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="2">
         <v>2025</v>
       </c>
       <c r="C76" s="2">
-        <v>5</v>
-      </c>
-      <c r="D76" s="3">
-        <v>13.00561797752809</v>
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>7.6644518272425248</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="2">
         <v>2025</v>
       </c>
       <c r="C77" s="2">
-        <v>6</v>
-      </c>
-      <c r="D77" s="3">
-        <v>13.641176470588235</v>
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>7.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C78" s="2">
         <v>11</v>
       </c>
-      <c r="B78" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C78" s="2">
-        <v>7</v>
-      </c>
-      <c r="D78" s="3">
-        <v>12.864130434782609</v>
+      <c r="D78">
+        <v>7.2327586206896548</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1516,10 +1509,10 @@
         <v>2025</v>
       </c>
       <c r="C79" s="2">
-        <v>8</v>
-      </c>
-      <c r="D79" s="3">
-        <v>14.787878787878787</v>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>7.9836065573770494</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1530,10 +1523,10 @@
         <v>2025</v>
       </c>
       <c r="C80" s="2">
-        <v>9</v>
-      </c>
-      <c r="D80" s="3">
-        <v>12.206521739130435</v>
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>7.8662551440329223</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1544,122 +1537,122 @@
         <v>2025</v>
       </c>
       <c r="C81" s="2">
-        <v>10</v>
-      </c>
-      <c r="D81" s="3">
-        <v>11.25257731958763</v>
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>7.72579185520362</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" s="2">
         <v>2025</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3">
-        <v>7.2645348837209305</v>
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>7.7087286527514234</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="2">
         <v>2025</v>
       </c>
       <c r="C83" s="2">
-        <v>2</v>
-      </c>
-      <c r="D83" s="3">
-        <v>6.4595375722543356</v>
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>8.5433746425166834</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="2">
         <v>2025</v>
       </c>
       <c r="C84" s="2">
-        <v>3</v>
-      </c>
-      <c r="D84" s="3">
-        <v>6.6488888888888891</v>
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>8.4923224568138203</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" s="2">
         <v>2025</v>
       </c>
       <c r="C85" s="2">
-        <v>4</v>
-      </c>
-      <c r="D85" s="3">
-        <v>6.4341372912801482</v>
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>8.1987295825771334</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="2">
         <v>2025</v>
       </c>
       <c r="C86" s="2">
-        <v>5</v>
-      </c>
-      <c r="D86" s="3">
-        <v>6.72887323943662</v>
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>8.2472426470588243</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" s="2">
         <v>2025</v>
       </c>
       <c r="C87" s="2">
-        <v>6</v>
-      </c>
-      <c r="D87" s="3">
-        <v>6.286282306163022</v>
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>8.1334569045412426</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" s="2">
         <v>2025</v>
       </c>
       <c r="C88" s="2">
-        <v>7</v>
-      </c>
-      <c r="D88" s="3">
-        <v>6.8276762402088771</v>
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>7.8615948670944089</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" s="2">
         <v>2025</v>
       </c>
       <c r="C89" s="2">
-        <v>8</v>
-      </c>
-      <c r="D89" s="3">
-        <v>7.9373040752351098</v>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>8.4170854271356781</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1670,10 +1663,10 @@
         <v>2025</v>
       </c>
       <c r="C90" s="2">
-        <v>9</v>
-      </c>
-      <c r="D90" s="3">
-        <v>7.6644518272425248</v>
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>7.9636992221261886</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1684,136 +1677,136 @@
         <v>2025</v>
       </c>
       <c r="C91" s="2">
-        <v>10</v>
-      </c>
-      <c r="D91" s="3">
-        <v>7.5105740181268885</v>
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>8.1458752515090538</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" s="2">
         <v>2025</v>
       </c>
       <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="3">
-        <v>7.7608486017357761</v>
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>8.3960036330608538</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" s="2">
         <v>2025</v>
       </c>
       <c r="C93" s="2">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3">
-        <v>7.8662551440329223</v>
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>7.9485420240137223</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" s="2">
         <v>2025</v>
       </c>
       <c r="C94" s="2">
-        <v>3</v>
-      </c>
-      <c r="D94" s="3">
-        <v>7.72579185520362</v>
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>8.070219966159053</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" s="2">
         <v>2025</v>
       </c>
       <c r="C95" s="2">
-        <v>4</v>
-      </c>
-      <c r="D95" s="3">
-        <v>7.7087286527514234</v>
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>8.080560420315237</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" s="2">
         <v>2025</v>
       </c>
       <c r="C96" s="2">
-        <v>5</v>
-      </c>
-      <c r="D96" s="3">
-        <v>8.5433746425166834</v>
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>8.0359281437125745</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="2">
         <v>2025</v>
       </c>
       <c r="C97" s="2">
-        <v>6</v>
-      </c>
-      <c r="D97" s="3">
-        <v>8.4923224568138203</v>
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>7.7824999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" s="2">
         <v>2025</v>
       </c>
       <c r="C98" s="2">
-        <v>7</v>
-      </c>
-      <c r="D98" s="3">
-        <v>8.1987295825771334</v>
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>7.8524886877828051</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" s="2">
         <v>2025</v>
       </c>
       <c r="C99" s="2">
-        <v>8</v>
-      </c>
-      <c r="D99" s="3">
-        <v>8.2472426470588243</v>
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>7.7185185185185183</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="2">
         <v>2025</v>
       </c>
       <c r="C100" s="2">
-        <v>9</v>
-      </c>
-      <c r="D100" s="3">
-        <v>8.1334569045412426</v>
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>8.3495618305744888</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1824,155 +1817,155 @@
         <v>2025</v>
       </c>
       <c r="C101" s="2">
-        <v>10</v>
-      </c>
-      <c r="D101" s="3">
-        <v>7.8615948670944089</v>
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>6.4881889763779528</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B102" s="2">
         <v>2025</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
-      </c>
-      <c r="D102" s="3">
-        <v>7.7147796024200517</v>
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>5.854838709677419</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" s="2">
         <v>2025</v>
       </c>
       <c r="C103" s="2">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3">
-        <v>8.1458752515090538</v>
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>4.625</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104" s="2">
         <v>2025</v>
       </c>
       <c r="C104" s="2">
-        <v>3</v>
-      </c>
-      <c r="D104" s="3">
-        <v>8.3960036330608538</v>
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>8.8636363636363633</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105" s="2">
         <v>2025</v>
       </c>
       <c r="C105" s="2">
-        <v>4</v>
-      </c>
-      <c r="D105" s="3">
-        <v>7.9485420240137223</v>
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>5.44</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" s="2">
         <v>2025</v>
       </c>
       <c r="C106" s="2">
-        <v>5</v>
-      </c>
-      <c r="D106" s="3">
-        <v>8.070219966159053</v>
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>6.1449275362318838</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" s="2">
         <v>2025</v>
       </c>
       <c r="C107" s="2">
-        <v>6</v>
-      </c>
-      <c r="D107" s="3">
-        <v>8.080560420315237</v>
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>5.7125000000000004</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108" s="2">
         <v>2025</v>
       </c>
       <c r="C108" s="2">
-        <v>7</v>
-      </c>
-      <c r="D108" s="3">
-        <v>8.0359281437125745</v>
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>6.6338028169014081</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" s="2">
         <v>2025</v>
       </c>
       <c r="C109" s="2">
-        <v>8</v>
-      </c>
-      <c r="D109" s="3">
-        <v>7.7824999999999998</v>
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>8.5686274509803919</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" s="2">
         <v>2025</v>
       </c>
       <c r="C110" s="2">
-        <v>9</v>
-      </c>
-      <c r="D110" s="3">
-        <v>7.8524886877828051</v>
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>6.75</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111" s="2">
         <v>2025</v>
       </c>
       <c r="C111" s="2">
-        <v>10</v>
-      </c>
-      <c r="D111" s="3">
-        <v>7.7185185185185183</v>
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>5.4347826086956523</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112" s="2">
         <v>2025</v>
@@ -1980,13 +1973,13 @@
       <c r="C112" s="2">
         <v>1</v>
       </c>
-      <c r="D112" s="3">
-        <v>6.3464566929133861</v>
+      <c r="D112">
+        <v>5.7349926793557833</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B113" s="2">
         <v>2025</v>
@@ -1994,13 +1987,13 @@
       <c r="C113" s="2">
         <v>2</v>
       </c>
-      <c r="D113" s="3">
-        <v>5.854838709677419</v>
+      <c r="D113">
+        <v>5.8543371522094922</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114" s="2">
         <v>2025</v>
@@ -2008,13 +2001,13 @@
       <c r="C114" s="2">
         <v>3</v>
       </c>
-      <c r="D114" s="3">
-        <v>4.625</v>
+      <c r="D114">
+        <v>5.6302765647743813</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" s="2">
         <v>2025</v>
@@ -2022,13 +2015,13 @@
       <c r="C115" s="2">
         <v>4</v>
       </c>
-      <c r="D115" s="3">
-        <v>8.8636363636363633</v>
+      <c r="D115">
+        <v>5.4924924924924925</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" s="2">
         <v>2025</v>
@@ -2036,13 +2029,13 @@
       <c r="C116" s="2">
         <v>5</v>
       </c>
-      <c r="D116" s="3">
-        <v>5.44</v>
+      <c r="D116">
+        <v>6.0485133020344284</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" s="2">
         <v>2025</v>
@@ -2050,13 +2043,13 @@
       <c r="C117" s="2">
         <v>6</v>
       </c>
-      <c r="D117" s="3">
-        <v>6.1449275362318838</v>
+      <c r="D117">
+        <v>5.8866768759571206</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118" s="2">
         <v>2025</v>
@@ -2064,13 +2057,13 @@
       <c r="C118" s="2">
         <v>7</v>
       </c>
-      <c r="D118" s="3">
-        <v>5.7125000000000004</v>
+      <c r="D118">
+        <v>5.5096870342771984</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119" s="2">
         <v>2025</v>
@@ -2078,13 +2071,13 @@
       <c r="C119" s="2">
         <v>8</v>
       </c>
-      <c r="D119" s="3">
-        <v>6.6338028169014081</v>
+      <c r="D119">
+        <v>6.230894308943089</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120" s="2">
         <v>2025</v>
@@ -2092,13 +2085,13 @@
       <c r="C120" s="2">
         <v>9</v>
       </c>
-      <c r="D120" s="3">
-        <v>8.5686274509803919</v>
+      <c r="D120">
+        <v>5.1541666666666668</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" s="2">
         <v>2025</v>
@@ -2106,708 +2099,638 @@
       <c r="C121" s="2">
         <v>10</v>
       </c>
-      <c r="D121" s="3">
-        <v>6.75</v>
+      <c r="D121">
+        <v>5.3304093567251458</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B122" s="2">
         <v>2025</v>
       </c>
       <c r="C122" s="2">
-        <v>1</v>
-      </c>
-      <c r="D122" s="3">
-        <v>5.5549048316251834</v>
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>5.221745350500715</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B123" s="2">
         <v>2025</v>
       </c>
       <c r="C123" s="2">
-        <v>2</v>
-      </c>
-      <c r="D123" s="3">
-        <v>5.8543371522094922</v>
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>7.6319444444444446</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124" s="2">
         <v>2025</v>
       </c>
       <c r="C124" s="2">
-        <v>3</v>
-      </c>
-      <c r="D124" s="3">
-        <v>5.6302765647743813</v>
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>8.0207468879668049</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B125" s="2">
         <v>2025</v>
       </c>
       <c r="C125" s="2">
-        <v>4</v>
-      </c>
-      <c r="D125" s="3">
-        <v>5.4924924924924925</v>
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>8.6678966789667893</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126" s="2">
         <v>2025</v>
       </c>
       <c r="C126" s="2">
-        <v>5</v>
-      </c>
-      <c r="D126" s="3">
-        <v>6.0485133020344284</v>
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>8.4232209737827723</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B127" s="2">
         <v>2025</v>
       </c>
       <c r="C127" s="2">
-        <v>6</v>
-      </c>
-      <c r="D127" s="3">
-        <v>5.8866768759571206</v>
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>8.01056338028169</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B128" s="2">
         <v>2025</v>
       </c>
       <c r="C128" s="2">
-        <v>7</v>
-      </c>
-      <c r="D128" s="3">
-        <v>5.5096870342771984</v>
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>8.4742647058823533</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129" s="2">
         <v>2025</v>
       </c>
       <c r="C129" s="2">
-        <v>8</v>
-      </c>
-      <c r="D129" s="3">
-        <v>6.230894308943089</v>
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>8.1130136986301373</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130" s="2">
         <v>2025</v>
       </c>
       <c r="C130" s="2">
-        <v>9</v>
-      </c>
-      <c r="D130" s="3">
-        <v>5.1541666666666668</v>
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>9.0472727272727269</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B131" s="2">
         <v>2025</v>
       </c>
       <c r="C131" s="2">
-        <v>10</v>
-      </c>
-      <c r="D131" s="3">
-        <v>5.3304093567251458</v>
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>9.6275303643724701</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B132" s="2">
         <v>2025</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
-      </c>
-      <c r="D132" s="3">
-        <v>7.6319444444444446</v>
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>9.526748971193415</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B133" s="2">
         <v>2025</v>
       </c>
       <c r="C133" s="2">
-        <v>2</v>
-      </c>
-      <c r="D133" s="3">
-        <v>8.0207468879668049</v>
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>9.0242914979757085</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B134" s="2">
         <v>2025</v>
       </c>
       <c r="C134" s="2">
-        <v>3</v>
-      </c>
-      <c r="D134" s="3">
-        <v>8.6678966789667893</v>
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>7.4657142857142853</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B135" s="2">
         <v>2025</v>
       </c>
       <c r="C135" s="2">
-        <v>4</v>
-      </c>
-      <c r="D135" s="3">
-        <v>8.4232209737827723</v>
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>8.595505617977528</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B136" s="2">
         <v>2025</v>
       </c>
       <c r="C136" s="2">
-        <v>5</v>
-      </c>
-      <c r="D136" s="3">
-        <v>8.01056338028169</v>
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>8.0302375809935214</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B137" s="2">
         <v>2025</v>
       </c>
       <c r="C137" s="2">
-        <v>6</v>
-      </c>
-      <c r="D137" s="3">
-        <v>8.4742647058823533</v>
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>7.912854030501089</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138" s="2">
         <v>2025</v>
       </c>
       <c r="C138" s="2">
-        <v>7</v>
-      </c>
-      <c r="D138" s="3">
-        <v>8.1130136986301373</v>
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>8.2454728370221329</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139" s="2">
         <v>2025</v>
       </c>
       <c r="C139" s="2">
-        <v>8</v>
-      </c>
-      <c r="D139" s="3">
-        <v>9.0472727272727269</v>
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>8.6681715575620775</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140" s="2">
         <v>2025</v>
       </c>
       <c r="C140" s="2">
-        <v>9</v>
-      </c>
-      <c r="D140" s="3">
-        <v>9.6275303643724701</v>
+        <v>7</v>
+      </c>
+      <c r="D140">
+        <v>7.6570796460176993</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141" s="2">
         <v>2025</v>
       </c>
       <c r="C141" s="2">
-        <v>10</v>
-      </c>
-      <c r="D141" s="3">
-        <v>9.526748971193415</v>
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>7.7086247086247086</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B142" s="2">
         <v>2025</v>
       </c>
       <c r="C142" s="2">
-        <v>1</v>
-      </c>
-      <c r="D142" s="3">
-        <v>7.4657142857142853</v>
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>8.0756880733944953</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B143" s="2">
         <v>2025</v>
       </c>
       <c r="C143" s="2">
-        <v>2</v>
-      </c>
-      <c r="D143" s="3">
-        <v>8.595505617977528</v>
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>7.2827442827442823</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B144" s="2">
         <v>2025</v>
       </c>
       <c r="C144" s="2">
-        <v>3</v>
-      </c>
-      <c r="D144" s="3">
-        <v>7.9785407725321891</v>
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>7.6870588235294122</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B145" s="2">
         <v>2025</v>
       </c>
       <c r="C145" s="2">
-        <v>4</v>
-      </c>
-      <c r="D145" s="3">
-        <v>7.912854030501089</v>
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>22.094594594594593</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B146" s="2">
         <v>2025</v>
       </c>
       <c r="C146" s="2">
-        <v>5</v>
-      </c>
-      <c r="D146" s="3">
-        <v>8.2289156626506017</v>
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>31.442307692307693</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B147" s="2">
         <v>2025</v>
       </c>
       <c r="C147" s="2">
-        <v>6</v>
-      </c>
-      <c r="D147" s="3">
-        <v>8.6292134831460672</v>
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>23.356321839080461</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B148" s="2">
         <v>2025</v>
       </c>
       <c r="C148" s="2">
-        <v>7</v>
-      </c>
-      <c r="D148" s="3">
-        <v>7.6401766004415013</v>
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>29.764705882352942</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B149" s="2">
         <v>2025</v>
       </c>
       <c r="C149" s="2">
-        <v>8</v>
-      </c>
-      <c r="D149" s="3">
-        <v>7.7086247086247086</v>
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>24.103448275862068</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B150" s="2">
         <v>2025</v>
       </c>
       <c r="C150" s="2">
-        <v>9</v>
-      </c>
-      <c r="D150" s="3">
-        <v>8.0756880733944953</v>
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>28.426666666666666</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B151" s="2">
         <v>2025</v>
       </c>
       <c r="C151" s="2">
-        <v>10</v>
-      </c>
-      <c r="D151" s="3">
-        <v>7.2827442827442823</v>
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>22.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B152" s="2">
         <v>2025</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
-      </c>
-      <c r="D152" s="3">
-        <v>22.094594594594593</v>
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>25.753424657534246</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B153" s="2">
         <v>2025</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
-      </c>
-      <c r="D153" s="3">
-        <v>31.442307692307693</v>
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>29.208955223880597</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B154" s="2">
         <v>2025</v>
       </c>
       <c r="C154" s="2">
-        <v>3</v>
-      </c>
-      <c r="D154" s="3">
-        <v>23.356321839080461</v>
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>24.054347826086957</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B155" s="2">
         <v>2025</v>
       </c>
       <c r="C155" s="2">
-        <v>4</v>
-      </c>
-      <c r="D155" s="3">
-        <v>29.764705882352942</v>
+        <v>11</v>
+      </c>
+      <c r="D155">
+        <v>27.45945945945946</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B156" s="2">
         <v>2025</v>
       </c>
       <c r="C156" s="2">
-        <v>5</v>
-      </c>
-      <c r="D156" s="3">
-        <v>24.103448275862068</v>
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>5.3844856661045535</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B157" s="2">
         <v>2025</v>
       </c>
       <c r="C157" s="2">
-        <v>6</v>
-      </c>
-      <c r="D157" s="3">
-        <v>28.426666666666666</v>
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>5.1582608695652175</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B158" s="2">
         <v>2025</v>
       </c>
       <c r="C158" s="2">
-        <v>7</v>
-      </c>
-      <c r="D158" s="3">
-        <v>22.5</v>
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>4.8282828282828278</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B159" s="2">
         <v>2025</v>
       </c>
       <c r="C159" s="2">
-        <v>8</v>
-      </c>
-      <c r="D159" s="3">
-        <v>25.753424657534246</v>
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>5.0573248407643314</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B160" s="2">
         <v>2025</v>
       </c>
       <c r="C160" s="2">
-        <v>9</v>
-      </c>
-      <c r="D160" s="3">
-        <v>29.208955223880597</v>
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>4.9293233082706767</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B161" s="2">
         <v>2025</v>
       </c>
       <c r="C161" s="2">
-        <v>10</v>
-      </c>
-      <c r="D161" s="3">
-        <v>24.054347826086957</v>
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>5.5343383584589612</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B162" s="2">
         <v>2025</v>
       </c>
       <c r="C162" s="2">
-        <v>1</v>
-      </c>
-      <c r="D162" s="3">
-        <v>5.3844856661045535</v>
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>5.3516873889875667</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B163" s="2">
         <v>2025</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
-      </c>
-      <c r="D163" s="3">
-        <v>5.1582608695652175</v>
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>6.1156716417910451</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B164" s="2">
         <v>2025</v>
       </c>
       <c r="C164" s="2">
-        <v>3</v>
-      </c>
-      <c r="D164" s="3">
-        <v>4.8282828282828278</v>
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>4.8116666666666665</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B165" s="2">
         <v>2025</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
-      </c>
-      <c r="D165" s="3">
-        <v>5.0573248407643314</v>
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>5.0135363790186123</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B166" s="2">
         <v>2025</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
-      </c>
-      <c r="D166" s="3">
-        <v>4.9293233082706767</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C167" s="2">
-        <v>6</v>
-      </c>
-      <c r="D167" s="3">
-        <v>5.5343383584589612</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C168" s="2">
-        <v>7</v>
-      </c>
-      <c r="D168" s="3">
-        <v>5.3516873889875667</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C169" s="2">
-        <v>8</v>
-      </c>
-      <c r="D169" s="3">
-        <v>6.1156716417910451</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>20</v>
-      </c>
-      <c r="B170" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C170" s="2">
-        <v>9</v>
-      </c>
-      <c r="D170" s="3">
-        <v>4.8116666666666665</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>20</v>
-      </c>
-      <c r="B171" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C171" s="2">
-        <v>10</v>
-      </c>
-      <c r="D171" s="3">
-        <v>5.0391156462585034</v>
+        <v>11</v>
+      </c>
+      <c r="D166">
+        <v>5.3434163701067616</v>
       </c>
     </row>
   </sheetData>
